--- a/ky/downloads/data-excel/4.c.1.xlsx
+++ b/ky/downloads/data-excel/4.c.1.xlsx
@@ -500,11 +500,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -512,7 +510,7 @@
     <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -523,7 +521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -534,7 +532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="2"/>
       <c r="C3" s="6"/>
@@ -551,8 +549,9 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -601,8 +600,11 @@
       <c r="P4" s="10">
         <v>2022</v>
       </c>
+      <c r="Q4" s="10">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -651,8 +653,11 @@
       <c r="P5" s="11">
         <v>94.2</v>
       </c>
+      <c r="Q5" s="11">
+        <v>93.7</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -701,8 +706,11 @@
       <c r="P6" s="14">
         <v>96</v>
       </c>
+      <c r="Q6" s="14">
+        <v>95.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -751,8 +759,11 @@
       <c r="P7" s="12">
         <v>97.5</v>
       </c>
+      <c r="Q7" s="12">
+        <v>97.1</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L8" s="9"/>
     </row>
   </sheetData>
